--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF12BB-B91C-4F1B-8C35-76B6E00E505A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD051E40-F3AB-4896-B100-1523830EC8DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,6 +286,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,39 +326,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,38 +611,38 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -658,10 +658,10 @@
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -670,16 +670,16 @@
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -687,9 +687,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>33</v>
@@ -697,7 +695,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
@@ -705,9 +703,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>33</v>
@@ -715,19 +711,23 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -777,7 +777,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -787,7 +787,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -797,7 +797,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -807,7 +807,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4"/>
@@ -819,7 +819,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -829,7 +829,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -839,7 +839,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -849,7 +849,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4"/>
@@ -861,7 +861,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -871,7 +871,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -881,7 +881,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -891,7 +891,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -901,7 +901,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -911,7 +911,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -921,7 +921,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4"/>
@@ -933,7 +933,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -943,7 +943,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -953,7 +953,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -963,7 +963,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -973,7 +973,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -983,7 +983,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -993,7 +993,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="4"/>
@@ -1005,7 +1005,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1015,7 +1015,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1025,7 +1025,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1035,7 +1035,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1045,7 +1045,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="4"/>
@@ -1057,7 +1057,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1067,7 +1067,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1077,7 +1077,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1087,7 +1087,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1097,7 +1097,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1107,7 +1107,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1117,7 +1117,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="4"/>
@@ -1129,7 +1129,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1139,7 +1139,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1149,7 +1149,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1159,7 +1159,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1169,7 +1169,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1179,7 +1179,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="4"/>
@@ -1191,7 +1191,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1201,7 +1201,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1211,7 +1211,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1221,7 +1221,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1231,7 +1231,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1241,7 +1241,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1251,7 +1251,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1261,7 +1261,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="4"/>
@@ -1273,7 +1273,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1283,7 +1283,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1293,7 +1293,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1303,7 +1303,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1313,7 +1313,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4"/>
@@ -1325,7 +1325,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1335,7 +1335,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1345,7 +1345,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1355,7 +1355,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1365,7 +1365,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1375,7 +1375,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="4"/>
@@ -1387,7 +1387,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1397,7 +1397,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1407,7 +1407,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1417,7 +1417,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1427,7 +1427,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1437,7 +1437,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1447,7 +1447,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="4"/>
@@ -1459,7 +1459,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1469,7 +1469,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1479,7 +1479,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1489,7 +1489,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1499,7 +1499,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="4"/>
@@ -1511,7 +1511,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1521,7 +1521,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1531,7 +1531,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1541,7 +1541,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1551,7 +1551,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1561,7 +1561,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1571,7 +1571,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1581,7 +1581,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="4"/>
@@ -1593,7 +1593,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -1613,7 +1613,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -1623,7 +1623,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -1633,7 +1633,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -1643,7 +1643,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1653,7 +1653,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="4"/>
@@ -1665,7 +1665,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -1675,7 +1675,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -1685,7 +1685,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -1695,7 +1695,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -1705,7 +1705,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -1715,7 +1715,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -1725,7 +1725,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -1735,7 +1735,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -1745,7 +1745,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B105" s="4"/>
@@ -1757,7 +1757,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -1767,7 +1767,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -1790,26 +1790,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A69:A75"/>
     <mergeCell ref="A76:A80"/>
     <mergeCell ref="A81:A88"/>
     <mergeCell ref="A89:A95"/>
     <mergeCell ref="A96:A104"/>
     <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A0F05-E830-4FB5-BA65-1F8665BFD97F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53348816-F4A5-4B22-892F-5AF8A52ADB47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="8730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -127,13 +127,55 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation in a string </t>
+  </si>
+  <si>
+    <t>string anagrams</t>
+  </si>
+  <si>
+    <t>smallest window containing substring</t>
+  </si>
+  <si>
+    <t>words concatenation</t>
+  </si>
+  <si>
+    <t>pair with target sum</t>
+  </si>
+  <si>
+    <t>removes duplicates</t>
+  </si>
+  <si>
+    <t>squaring a sorted array</t>
+  </si>
+  <si>
+    <t>triplet sum to zero</t>
+  </si>
+  <si>
+    <t>triplet sum close to target</t>
+  </si>
+  <si>
+    <t>triplets with smaller sum</t>
+  </si>
+  <si>
+    <t>subarrays with products less than a target</t>
+  </si>
+  <si>
+    <t>quadruple sum to target</t>
+  </si>
+  <si>
+    <t>comparing strings containing backspaces</t>
+  </si>
+  <si>
+    <t>minimum window sort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +198,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +230,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -273,12 +327,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,6 +374,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,45 +419,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,26 +719,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
@@ -680,13 +754,13 @@
       <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -704,7 +778,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -720,7 +794,7 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -736,7 +810,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -752,7 +826,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -768,7 +842,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -784,7 +858,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -800,7 +874,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -810,7 +886,9 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -820,7 +898,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -830,7 +910,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1797,87 +1879,177 @@
       <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="12"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="13"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="14"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="3"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H78:H82"/>
-    <mergeCell ref="H83:H90"/>
-    <mergeCell ref="H91:H97"/>
-    <mergeCell ref="H98:H106"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H77"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="A98:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A107:A116"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="H3:H15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A98:A106"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H77"/>
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="H98:H106"/>
+    <mergeCell ref="H114:H116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53348816-F4A5-4B22-892F-5AF8A52ADB47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE712714-DA40-4A44-8888-63F2058CE7C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="8730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -383,6 +383,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,15 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,18 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -707,7 +707,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,26 +719,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="23" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
@@ -754,10 +754,10 @@
       <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -772,12 +772,12 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
@@ -790,10 +790,10 @@
       <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
@@ -806,10 +806,10 @@
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
@@ -822,10 +822,10 @@
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
@@ -838,10 +838,10 @@
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
@@ -854,10 +854,10 @@
       <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
@@ -870,35 +870,43 @@
       <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2"/>
@@ -906,11 +914,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2"/>
@@ -918,30 +926,30 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3"/>
@@ -950,40 +958,40 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="3"/>
@@ -992,70 +1000,70 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3"/>
@@ -1064,70 +1072,70 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="3"/>
@@ -1136,50 +1144,50 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="3"/>
@@ -1188,70 +1196,70 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="3"/>
@@ -1260,60 +1268,60 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="12"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="13"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="13"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="3"/>
@@ -1322,80 +1330,80 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="12"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="13"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="13"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="13"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="3"/>
@@ -1404,50 +1412,50 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="13"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="13"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="13"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="3"/>
@@ -1456,60 +1464,60 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="13"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="13"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="14"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="3"/>
@@ -1518,70 +1526,70 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="13"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="13"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="13"/>
+      <c r="H76" s="20"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="3"/>
@@ -1590,50 +1598,50 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="13"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="13"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="13"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="3"/>
@@ -1642,80 +1650,80 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="12"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="13"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="13"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="13"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="13"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="3"/>
@@ -1724,70 +1732,70 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="13"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="13"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="13"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="13"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="13"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="3"/>
@@ -1796,90 +1804,90 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="19"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="13"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="13"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="13"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="13"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="13"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="13"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="13"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="14"/>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -1893,7 +1901,7 @@
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="10" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +1913,7 @@
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="10" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1925,7 @@
       <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="10" t="s">
         <v>41</v>
       </c>
@@ -1929,7 +1937,7 @@
       <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="10" t="s">
         <v>42</v>
       </c>
@@ -1941,7 +1949,7 @@
       <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="10" t="s">
         <v>43</v>
       </c>
@@ -1953,7 +1961,7 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="10" t="s">
         <v>44</v>
       </c>
@@ -1965,8 +1973,8 @@
       <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="24" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C114" s="2"/>
@@ -1974,11 +1982,11 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="12"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="24" t="s">
+      <c r="A115" s="14"/>
+      <c r="B115" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C115" s="2"/>
@@ -1986,11 +1994,11 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="13"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="B116" s="24" t="s">
+      <c r="A116" s="15"/>
+      <c r="B116" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C116" s="2"/>
@@ -1998,7 +2006,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="14"/>
+      <c r="H116" s="21"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -2014,6 +2022,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="H91:H97"/>
+    <mergeCell ref="H98:H106"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H77"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A98:A106"/>
     <mergeCell ref="A107:A116"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="B1:B2"/>
@@ -2030,26 +2058,6 @@
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="A98:A106"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H77"/>
-    <mergeCell ref="H78:H82"/>
-    <mergeCell ref="H83:H90"/>
-    <mergeCell ref="H91:H97"/>
-    <mergeCell ref="H98:H106"/>
-    <mergeCell ref="H114:H116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F2E66-7C0B-4C52-8D8B-83692583DC0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5AB5B-4358-43D6-95BE-2D2A5DD3F56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="2625" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -421,6 +424,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,10 +457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,24 +473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,25 +769,25 @@
     <col min="2" max="2" width="42.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="6"/>
     <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="14" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="18" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -792,8 +795,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -806,14 +809,14 @@
       <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -825,16 +828,16 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -844,14 +847,14 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -861,14 +864,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -878,14 +881,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -895,14 +898,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -912,14 +915,14 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -929,14 +932,14 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -946,14 +949,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -963,14 +966,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -978,12 +981,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -991,34 +994,34 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2"/>
@@ -1026,23 +1029,23 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1050,89 +1053,89 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2"/>
@@ -1140,78 +1143,78 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1219,78 +1222,78 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="23"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="16"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2"/>
@@ -1298,56 +1301,56 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="23"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="23"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="23"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="23"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="15"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="23"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="16"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2"/>
@@ -1355,78 +1358,78 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="23"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="23"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="23"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="15"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="23"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="23"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="23"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="23"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="2"/>
@@ -1434,67 +1437,67 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="23"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="14"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="23"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="15"/>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="23"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="23"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="23"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="16"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="2"/>
@@ -1502,89 +1505,89 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="23"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="23"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="15"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="23"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="15"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="23"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="15"/>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="23"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="15"/>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="23"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="15"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="16"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2"/>
@@ -1592,56 +1595,56 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="23"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="14"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="15"/>
+      <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="23"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="15"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="23"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="15"/>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="23"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="16"/>
+      <c r="I70" s="21"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="2"/>
@@ -1649,67 +1652,67 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="23"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="15"/>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="23"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="23"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="15"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="23"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="15"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="23"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="16"/>
+      <c r="I76" s="21"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="2"/>
@@ -1717,78 +1720,78 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="23"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="14"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="23"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="15"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="23"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="23"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="23"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="23"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="15"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="23"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="16"/>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="2"/>
@@ -1796,56 +1799,56 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="23"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="23"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="23"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="23"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="23"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="16"/>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="2"/>
@@ -1853,89 +1856,89 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="23"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="23"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="15"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="23"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="23"/>
+      <c r="G92" s="12"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="15"/>
+      <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="23"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="15"/>
+      <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="23"/>
+      <c r="G94" s="12"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="15"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="23"/>
+      <c r="G95" s="12"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="15"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="23"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="16"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
@@ -1943,78 +1946,78 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="23"/>
+      <c r="G97" s="12"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="23"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="15"/>
+      <c r="I98" s="20"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="23"/>
+      <c r="G99" s="12"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="15"/>
+      <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="23"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="15"/>
+      <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="23"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="15"/>
+      <c r="I101" s="20"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="23"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="15"/>
+      <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="23"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="16"/>
+      <c r="I103" s="21"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B104" s="2"/>
@@ -2022,193 +2025,237 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="23"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="14"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="23"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="15"/>
+      <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="23"/>
+      <c r="G106" s="12"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="15"/>
+      <c r="I106" s="20"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="23"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="15"/>
+      <c r="I107" s="20"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="23"/>
+      <c r="G108" s="12"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="15"/>
+      <c r="I108" s="20"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="23"/>
+      <c r="G109" s="12"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="15"/>
+      <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="23"/>
+      <c r="G110" s="12"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="15"/>
+      <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="23"/>
+      <c r="G111" s="12"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="15"/>
+      <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="23"/>
+      <c r="G112" s="12"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="16"/>
+      <c r="I112" s="21"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="11"/>
+      <c r="G113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="12"/>
+      <c r="G114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="17"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="12"/>
+      <c r="G115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="12"/>
+      <c r="G116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="17"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="12"/>
+      <c r="G117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" s="17"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="12"/>
+      <c r="G118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="17"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="12"/>
+      <c r="G119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="9" t="s">
         <v>45</v>
       </c>
@@ -2216,12 +2263,12 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="23"/>
+      <c r="G120" s="12"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="12"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="9" t="s">
         <v>46</v>
       </c>
@@ -2229,12 +2276,12 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="23"/>
+      <c r="G121" s="12"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="12"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="9" t="s">
         <v>47</v>
       </c>
@@ -2242,9 +2289,9 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="23"/>
+      <c r="G122" s="12"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="13"/>
+      <c r="I122" s="18"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -2255,12 +2302,33 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="23"/>
+      <c r="G123" s="12"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="25"/>
+      <c r="I123" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="I16:I25"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="I45:I51"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="I58:I65"/>
+    <mergeCell ref="I66:I70"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="I77:I83"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="I97:I103"/>
+    <mergeCell ref="I104:I112"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A96"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I113:I122"/>
     <mergeCell ref="A113:A122"/>
@@ -2277,27 +2345,6 @@
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="I45:I51"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="I66:I70"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="I77:I83"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="I97:I103"/>
-    <mergeCell ref="I104:I112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC5AB5B-4358-43D6-95BE-2D2A5DD3F56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A10F31A-037E-4614-B44C-4C6490BA961A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="2580" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -174,10 +174,25 @@
     <t>Leetcode Run</t>
   </si>
   <si>
-    <t xml:space="preserve">                  </t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>equal subset sum partition</t>
+  </si>
+  <si>
+    <t>subset sum</t>
+  </si>
+  <si>
+    <t>minimum subset sum difference</t>
+  </si>
+  <si>
+    <t>count of subset sum</t>
+  </si>
+  <si>
+    <t>target sum</t>
+  </si>
+  <si>
+    <t>number of subsets with diff</t>
   </si>
 </sst>
 </file>
@@ -759,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1039,9 @@
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1035,7 +1052,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1046,8 +1065,8 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1059,7 +1078,9 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1070,7 +1091,9 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1081,7 +1104,9 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1092,7 +1117,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2250,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I119" s="17"/>
     </row>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\go-workspace\src\github.com\aditya109\grokking-the-coding-interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A10F31A-037E-4614-B44C-4C6490BA961A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DF9BC-8EAE-4DD8-B46F-FC26423EA635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="2580" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-12750" yWindow="7515" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -193,6 +193,84 @@
   </si>
   <si>
     <t>number of subsets with diff</t>
+  </si>
+  <si>
+    <t>single number</t>
+  </si>
+  <si>
+    <t>single number - 2</t>
+  </si>
+  <si>
+    <t>complement of base 1 decimal number</t>
+  </si>
+  <si>
+    <t>linked list cycle</t>
+  </si>
+  <si>
+    <t>middle of linked list</t>
+  </si>
+  <si>
+    <t>start of linked list cycle</t>
+  </si>
+  <si>
+    <t>happy number</t>
+  </si>
+  <si>
+    <t>palidrome linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rearrange a linked list </t>
+  </si>
+  <si>
+    <t>cycle in a circular array</t>
+  </si>
+  <si>
+    <t>binary tree level order traversal</t>
+  </si>
+  <si>
+    <t>reverse level order traversal</t>
+  </si>
+  <si>
+    <t>zigzag traversal</t>
+  </si>
+  <si>
+    <t>level averages in a binary tree</t>
+  </si>
+  <si>
+    <t>minimum depth of a binary tree</t>
+  </si>
+  <si>
+    <t>level order successor</t>
+  </si>
+  <si>
+    <t>connect level order siblings</t>
+  </si>
+  <si>
+    <t>connect all level order siblings</t>
+  </si>
+  <si>
+    <t>right view of a binary tree</t>
+  </si>
+  <si>
+    <t>binary tree path sum</t>
+  </si>
+  <si>
+    <t>all paths for a sum</t>
+  </si>
+  <si>
+    <t>sum of path numbes</t>
+  </si>
+  <si>
+    <t>path with given sequence</t>
+  </si>
+  <si>
+    <t>count paths for a sum</t>
+  </si>
+  <si>
+    <t>tree diameter</t>
+  </si>
+  <si>
+    <t>path with maximum sum</t>
   </si>
 </sst>
 </file>
@@ -407,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +566,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,36 +1249,52 @@
       <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
@@ -1202,7 +1305,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
@@ -1213,7 +1316,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
@@ -1224,7 +1327,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
@@ -1235,7 +1338,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="21"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
@@ -1320,75 +1423,125 @@
       <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="21"/>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="19"/>
+      <c r="G45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1398,7 +1551,7 @@
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1406,18 +1559,19 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
@@ -1442,7 +1596,7 @@
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1450,12 +1604,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="21"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="17"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1463,7 +1615,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
@@ -1477,7 +1629,7 @@
       <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1485,10 +1637,12 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1496,7 +1650,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
@@ -1510,7 +1664,7 @@
       <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1518,12 +1672,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="A58" s="17"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1531,7 +1683,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
@@ -1545,7 +1697,7 @@
       <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1553,10 +1705,12 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1564,7 +1718,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
@@ -1600,7 +1754,7 @@
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1608,12 +1762,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A66" s="17"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1621,7 +1773,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
@@ -1635,7 +1787,7 @@
       <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1643,10 +1795,12 @@
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+      <c r="A69" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1654,10 +1808,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1665,12 +1819,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="21"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="A71" s="17"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1678,7 +1830,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
@@ -1692,7 +1844,7 @@
       <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1700,10 +1852,12 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="A74" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1711,7 +1865,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
@@ -1725,7 +1879,7 @@
       <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1733,12 +1887,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="A77" s="17"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1746,7 +1898,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="19"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
@@ -1760,7 +1912,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1768,10 +1920,12 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
+      <c r="A80" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1779,7 +1933,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="20"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
@@ -1804,7 +1958,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1812,12 +1966,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="A84" s="17"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1825,7 +1977,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="19"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
@@ -1839,7 +1991,7 @@
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1847,10 +1999,12 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1858,10 +2012,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="20"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1869,12 +2023,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="21"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="A89" s="17"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1882,7 +2034,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="19"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
@@ -1896,7 +2048,7 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1904,22 +2056,28 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="12"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1930,7 +2088,9 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1941,7 +2101,9 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1951,32 +2113,36 @@
       <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="12"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="21"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="2"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="12"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="19"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1987,7 +2153,9 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1997,30 +2165,38 @@
       <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="12"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="20"/>
+      <c r="I100" s="21"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="12"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="20"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -2030,32 +2206,36 @@
       <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="12"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="21"/>
+      <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="2"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="12"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="19"/>
+      <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -2065,8 +2245,10 @@
       <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -2076,18 +2258,22 @@
       <c r="I106" s="20"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="12"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="20"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2095,7 +2281,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="12"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="20"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
@@ -2131,7 +2317,7 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2139,93 +2325,57 @@
       <c r="F112" s="1"/>
       <c r="G112" s="12"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="21"/>
+      <c r="I112" s="20"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A113" s="20"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
-      <c r="B114" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I114" s="17"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
-      <c r="B115" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I115" s="17"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A116" s="21"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I116" s="17"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A117" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
         <v>33</v>
       </c>
@@ -2238,12 +2388,14 @@
       <c r="H117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I117" s="17"/>
+      <c r="I117" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>33</v>
@@ -2262,7 +2414,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>33</v>
@@ -2274,88 +2426,169 @@
         <v>33</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
-      <c r="B120" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" s="1"/>
+      <c r="B120" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
-      <c r="B121" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" s="1"/>
+      <c r="B121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="21"/>
-      <c r="B122" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C122" s="1"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="18"/>
+      <c r="G122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="1"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="13"/>
+      <c r="G123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I123" s="17"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+      <c r="B124" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="17"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="B125" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="17"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
+      <c r="B126" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A108:A116"/>
     <mergeCell ref="I16:I25"/>
     <mergeCell ref="I26:I32"/>
     <mergeCell ref="I33:I39"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="I45:I51"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="I66:I70"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="I77:I83"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="I97:I103"/>
-    <mergeCell ref="I104:I112"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="I48:I54"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="I80:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I100"/>
+    <mergeCell ref="I101:I107"/>
+    <mergeCell ref="I108:I116"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A100"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I113:I122"/>
-    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="I117:I126"/>
+    <mergeCell ref="A117:A126"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -2365,10 +2598,10 @@
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DF9BC-8EAE-4DD8-B46F-FC26423EA635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B6822-0840-40D4-9849-FA9FC485F200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-12750" yWindow="7515" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2550" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -529,27 +529,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,15 +575,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,29 +876,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="15" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -914,11 +914,11 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -934,12 +934,12 @@
         <v>33</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -953,10 +953,10 @@
         <v>33</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -970,10 +970,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -987,10 +987,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1004,10 +1004,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1021,10 +1021,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1038,10 +1038,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1055,10 +1055,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1072,10 +1072,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1109,10 +1109,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1120,10 +1120,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1135,10 +1135,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1148,10 +1148,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1161,10 +1161,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1174,10 +1174,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1187,10 +1187,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1200,20 +1200,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1221,10 +1221,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1232,10 +1232,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1243,10 +1243,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1262,12 +1262,12 @@
         <v>33</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1294,10 +1294,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1305,10 +1305,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1316,10 +1316,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1327,10 +1327,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="29"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1338,10 +1338,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1351,10 +1351,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1362,10 +1362,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1373,10 +1373,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1384,10 +1384,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1395,10 +1395,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1406,10 +1406,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1417,10 +1417,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="21"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1438,12 +1438,12 @@
       <c r="H40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="H41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1478,10 +1478,10 @@
       <c r="H42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1497,10 +1497,10 @@
       <c r="H43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="H44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1535,10 +1535,10 @@
       <c r="H45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1548,10 +1548,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1559,10 +1559,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1"/>
@@ -1571,10 +1571,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="19"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1582,10 +1582,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="12"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1593,10 +1593,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="12"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1604,10 +1604,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1615,10 +1615,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1626,10 +1626,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1637,10 +1637,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1650,10 +1650,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1661,10 +1661,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1672,10 +1672,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1683,10 +1683,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1694,10 +1694,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1705,10 +1705,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="21"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2"/>
@@ -1718,10 +1718,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="19"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1729,10 +1729,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1740,10 +1740,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="12"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1751,10 +1751,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1762,10 +1762,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1773,10 +1773,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1784,10 +1784,10 @@
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="20"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1795,10 +1795,10 @@
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="21"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2"/>
@@ -1808,10 +1808,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1819,10 +1819,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1830,10 +1830,10 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1841,10 +1841,10 @@
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="20"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1852,10 +1852,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="21"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2"/>
@@ -1865,10 +1865,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="19"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1876,10 +1876,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="20"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1887,10 +1887,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1898,10 +1898,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1909,10 +1909,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="20"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1920,10 +1920,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="21"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="2"/>
@@ -1933,10 +1933,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="19"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1944,10 +1944,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="20"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1955,10 +1955,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="20"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1966,10 +1966,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="20"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1977,10 +1977,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="20"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1988,10 +1988,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="20"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1999,10 +1999,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="21"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="2"/>
@@ -2012,10 +2012,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="19"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2023,10 +2023,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="20"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2034,10 +2034,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="20"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2045,10 +2045,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="20"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2056,25 +2056,31 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="21"/>
+      <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="19"/>
+      <c r="G92" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="7" t="s">
         <v>67</v>
       </c>
@@ -2084,10 +2090,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="12"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="20"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="7" t="s">
         <v>68</v>
       </c>
@@ -2097,10 +2103,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="12"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="7" t="s">
         <v>69</v>
       </c>
@@ -2110,10 +2116,10 @@
       <c r="F95" s="1"/>
       <c r="G95" s="12"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="20"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="7" t="s">
         <v>70</v>
       </c>
@@ -2123,10 +2129,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="12"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="20"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="7" t="s">
         <v>71</v>
       </c>
@@ -2136,10 +2142,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="12"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="20"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="7" t="s">
         <v>72</v>
       </c>
@@ -2149,10 +2155,10 @@
       <c r="F98" s="1"/>
       <c r="G98" s="12"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="20"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="9" t="s">
         <v>73</v>
       </c>
@@ -2162,10 +2168,10 @@
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="20"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="9" t="s">
         <v>74</v>
       </c>
@@ -2175,10 +2181,10 @@
       <c r="F100" s="1"/>
       <c r="G100" s="12"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="21"/>
+      <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -2190,10 +2196,10 @@
       <c r="F101" s="1"/>
       <c r="G101" s="12"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="19"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="7" t="s">
         <v>76</v>
       </c>
@@ -2203,10 +2209,10 @@
       <c r="F102" s="1"/>
       <c r="G102" s="12"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="20"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="7" t="s">
         <v>77</v>
       </c>
@@ -2216,10 +2222,10 @@
       <c r="F103" s="1"/>
       <c r="G103" s="12"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="20"/>
+      <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="7" t="s">
         <v>78</v>
       </c>
@@ -2229,10 +2235,10 @@
       <c r="F104" s="1"/>
       <c r="G104" s="12"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="20"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="7" t="s">
         <v>79</v>
       </c>
@@ -2242,10 +2248,10 @@
       <c r="F105" s="1"/>
       <c r="G105" s="12"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="20"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="9" t="s">
         <v>80</v>
       </c>
@@ -2255,10 +2261,10 @@
       <c r="F106" s="1"/>
       <c r="G106" s="12"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="20"/>
+      <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="9" t="s">
         <v>81</v>
       </c>
@@ -2268,10 +2274,10 @@
       <c r="F107" s="1"/>
       <c r="G107" s="12"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="21"/>
+      <c r="I107" s="20"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="2"/>
@@ -2281,10 +2287,10 @@
       <c r="F108" s="1"/>
       <c r="G108" s="12"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="19"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2292,10 +2298,10 @@
       <c r="F109" s="1"/>
       <c r="G109" s="12"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="20"/>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2303,10 +2309,10 @@
       <c r="F110" s="1"/>
       <c r="G110" s="12"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="20"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2314,10 +2320,10 @@
       <c r="F111" s="1"/>
       <c r="G111" s="12"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="20"/>
+      <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2325,10 +2331,10 @@
       <c r="F112" s="1"/>
       <c r="G112" s="12"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="20"/>
+      <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2336,10 +2342,10 @@
       <c r="F113" s="1"/>
       <c r="G113" s="12"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="20"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2347,10 +2353,10 @@
       <c r="F114" s="1"/>
       <c r="G114" s="12"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="20"/>
+      <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2358,10 +2364,10 @@
       <c r="F115" s="1"/>
       <c r="G115" s="12"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="20"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2369,10 +2375,10 @@
       <c r="F116" s="1"/>
       <c r="G116" s="12"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="21"/>
+      <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="2"/>
@@ -2388,12 +2394,12 @@
       <c r="H117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I117" s="16" t="s">
+      <c r="I117" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="7" t="s">
         <v>38</v>
       </c>
@@ -2409,10 +2415,10 @@
       <c r="H118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I118" s="17"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="7" t="s">
         <v>39</v>
       </c>
@@ -2428,10 +2434,10 @@
       <c r="H119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="17"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="7" t="s">
         <v>40</v>
       </c>
@@ -2447,10 +2453,10 @@
       <c r="H120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I120" s="17"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="7" t="s">
         <v>41</v>
       </c>
@@ -2466,10 +2472,10 @@
       <c r="H121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="17"/>
+      <c r="I121" s="16"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="7" t="s">
         <v>42</v>
       </c>
@@ -2485,10 +2491,10 @@
       <c r="H122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="17"/>
+      <c r="I122" s="16"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="7" t="s">
         <v>43</v>
       </c>
@@ -2504,10 +2510,10 @@
       <c r="H123" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I123" s="17"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="7" t="s">
         <v>44</v>
       </c>
@@ -2517,10 +2523,10 @@
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="17"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="9" t="s">
         <v>45</v>
       </c>
@@ -2530,10 +2536,10 @@
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="17"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="9" t="s">
         <v>46</v>
       </c>
@@ -2543,7 +2549,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="18"/>
+      <c r="I126" s="17"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -2565,6 +2571,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I117:I126"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="I3:I15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A100"/>
     <mergeCell ref="A101:A107"/>
     <mergeCell ref="A108:A116"/>
     <mergeCell ref="I16:I25"/>
@@ -2581,27 +2608,6 @@
     <mergeCell ref="I92:I100"/>
     <mergeCell ref="I101:I107"/>
     <mergeCell ref="I108:I116"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I117:I126"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="I3:I15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B6822-0840-40D4-9849-FA9FC485F200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E90837-AF40-4A34-A76B-D2293A92C960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2550" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4785" yWindow="2550" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>path with maximum sum</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,19 +2080,27 @@
       <c r="H92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I92" s="18"/>
+      <c r="I92" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,12 +2108,18 @@
       <c r="B94" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2110,12 +2127,18 @@
       <c r="B95" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="1"/>
+      <c r="G95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,12 +2146,18 @@
       <c r="B96" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="1"/>
+      <c r="G96" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,12 +2165,18 @@
       <c r="B97" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="1"/>
+      <c r="G97" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,12 +2184,18 @@
       <c r="B98" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="1"/>
+      <c r="G98" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,12 +2216,18 @@
       <c r="B100" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,25 +2237,39 @@
       <c r="B101" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="18"/>
+      <c r="G101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,12 +2277,18 @@
       <c r="B103" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,12 +2296,18 @@
       <c r="B104" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -2242,12 +2315,18 @@
       <c r="B105" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E90837-AF40-4A34-A76B-D2293A92C960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58F0F4-2D03-44DA-AF7F-6AD016DB08B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4785" yWindow="2550" windowWidth="21600" windowHeight="11385" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +310,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +346,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -483,12 +496,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +546,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,6 +567,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,29 +594,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,29 +897,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -917,11 +935,11 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -937,12 +955,12 @@
         <v>33</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -956,10 +974,10 @@
         <v>33</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -973,10 +991,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -990,10 +1008,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1007,10 +1025,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1024,10 +1042,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1041,10 +1059,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1058,10 +1076,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1075,10 +1093,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1088,10 +1106,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1101,10 +1119,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1112,10 +1130,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1123,10 +1141,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1138,10 +1156,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1151,10 +1169,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1164,10 +1182,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1177,10 +1195,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1190,10 +1208,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1203,20 +1221,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1224,10 +1242,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1235,10 +1253,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1246,10 +1264,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1265,12 +1283,12 @@
         <v>33</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1284,10 +1302,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1297,10 +1315,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1308,10 +1326,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1319,10 +1337,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1330,10 +1348,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1341,10 +1359,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="23"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1354,10 +1372,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1365,10 +1383,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1376,10 +1394,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1387,10 +1405,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1398,10 +1416,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1409,10 +1427,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1420,10 +1438,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="20"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1441,12 +1459,12 @@
       <c r="H40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1462,10 +1480,10 @@
       <c r="H41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="19"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1481,10 +1499,10 @@
       <c r="H42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1500,10 +1518,10 @@
       <c r="H43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="19"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1519,10 +1537,10 @@
       <c r="H44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="19"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1538,10 +1556,10 @@
       <c r="H45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1551,10 +1569,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1562,10 +1580,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1"/>
@@ -1574,10 +1592,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1585,10 +1603,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="12"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="19"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1596,10 +1614,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="12"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1607,10 +1625,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1618,10 +1636,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1629,10 +1647,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1640,10 +1658,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1653,10 +1671,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1664,10 +1682,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="19"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1675,10 +1693,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="19"/>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1686,10 +1704,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1697,10 +1715,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="19"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1708,10 +1726,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2"/>
@@ -1721,10 +1739,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="18"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1732,10 +1750,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="19"/>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1743,10 +1761,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="12"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1754,10 +1772,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="19"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1765,10 +1783,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="19"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1776,10 +1794,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1787,10 +1805,10 @@
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1798,10 +1816,10 @@
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2"/>
@@ -1811,10 +1829,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="18"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1822,10 +1840,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="19"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1833,10 +1851,10 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1844,10 +1862,10 @@
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1855,10 +1873,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="21"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2"/>
@@ -1868,10 +1886,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1879,10 +1897,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="19"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1890,10 +1908,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="19"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1901,10 +1919,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="19"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1912,10 +1930,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="19"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1923,10 +1941,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="2"/>
@@ -1936,10 +1954,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="18"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1947,10 +1965,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1958,10 +1976,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="19"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1969,10 +1987,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="19"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1980,10 +1998,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="19"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1991,10 +2009,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="19"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2002,10 +2020,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="2"/>
@@ -2015,10 +2033,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="18"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2026,10 +2044,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="19"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2037,10 +2055,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="19"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2048,10 +2066,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="19"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2059,10 +2077,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -2080,12 +2098,12 @@
       <c r="H92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I92" s="18" t="s">
+      <c r="I92" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="7" t="s">
         <v>67</v>
       </c>
@@ -2101,10 +2119,10 @@
       <c r="H93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I93" s="19"/>
+      <c r="I93" s="20"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="7" t="s">
         <v>68</v>
       </c>
@@ -2120,10 +2138,10 @@
       <c r="H94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="19"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="7" t="s">
         <v>69</v>
       </c>
@@ -2139,10 +2157,10 @@
       <c r="H95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I95" s="19"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="7" t="s">
         <v>70</v>
       </c>
@@ -2158,10 +2176,10 @@
       <c r="H96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="7" t="s">
         <v>71</v>
       </c>
@@ -2177,11 +2195,11 @@
       <c r="H97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I97" s="19"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="17"/>
+      <c r="B98" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2196,10 +2214,10 @@
       <c r="H98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I98" s="19"/>
+      <c r="I98" s="20"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="9" t="s">
         <v>73</v>
       </c>
@@ -2209,10 +2227,10 @@
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="19"/>
+      <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="9" t="s">
         <v>74</v>
       </c>
@@ -2228,10 +2246,10 @@
       <c r="H100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I100" s="20"/>
+      <c r="I100" s="21"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -2249,12 +2267,12 @@
       <c r="H101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I101" s="18" t="s">
+      <c r="I101" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="7" t="s">
         <v>76</v>
       </c>
@@ -2270,10 +2288,10 @@
       <c r="H102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I102" s="19"/>
+      <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="7" t="s">
         <v>77</v>
       </c>
@@ -2289,10 +2307,10 @@
       <c r="H103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I103" s="19"/>
+      <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="7" t="s">
         <v>78</v>
       </c>
@@ -2308,11 +2326,11 @@
       <c r="H104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I104" s="19"/>
+      <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="17"/>
+      <c r="B105" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2327,23 +2345,27 @@
       <c r="H105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I105" s="19"/>
+      <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="19"/>
+      <c r="I106" s="20"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="9" t="s">
         <v>81</v>
       </c>
@@ -2353,10 +2375,10 @@
       <c r="F107" s="1"/>
       <c r="G107" s="12"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="20"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="2"/>
@@ -2366,10 +2388,10 @@
       <c r="F108" s="1"/>
       <c r="G108" s="12"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="18"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2377,10 +2399,10 @@
       <c r="F109" s="1"/>
       <c r="G109" s="12"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="19"/>
+      <c r="I109" s="20"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2388,10 +2410,10 @@
       <c r="F110" s="1"/>
       <c r="G110" s="12"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="19"/>
+      <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2399,10 +2421,10 @@
       <c r="F111" s="1"/>
       <c r="G111" s="12"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="19"/>
+      <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2410,10 +2432,10 @@
       <c r="F112" s="1"/>
       <c r="G112" s="12"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="19"/>
+      <c r="I112" s="20"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2421,10 +2443,10 @@
       <c r="F113" s="1"/>
       <c r="G113" s="12"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2432,10 +2454,10 @@
       <c r="F114" s="1"/>
       <c r="G114" s="12"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="19"/>
+      <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2443,10 +2465,10 @@
       <c r="F115" s="1"/>
       <c r="G115" s="12"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="19"/>
+      <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2454,10 +2476,10 @@
       <c r="F116" s="1"/>
       <c r="G116" s="12"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="20"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="2"/>
@@ -2473,12 +2495,12 @@
       <c r="H117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="7" t="s">
         <v>38</v>
       </c>
@@ -2494,10 +2516,10 @@
       <c r="H118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I118" s="16"/>
+      <c r="I118" s="17"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="7" t="s">
         <v>39</v>
       </c>
@@ -2513,10 +2535,10 @@
       <c r="H119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="16"/>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="7" t="s">
         <v>40</v>
       </c>
@@ -2532,10 +2554,10 @@
       <c r="H120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I120" s="16"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="7" t="s">
         <v>41</v>
       </c>
@@ -2551,10 +2573,10 @@
       <c r="H121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="16"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="7" t="s">
         <v>42</v>
       </c>
@@ -2570,10 +2592,10 @@
       <c r="H122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="16"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="7" t="s">
         <v>43</v>
       </c>
@@ -2589,10 +2611,10 @@
       <c r="H123" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I123" s="16"/>
+      <c r="I123" s="17"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="7" t="s">
         <v>44</v>
       </c>
@@ -2602,10 +2624,10 @@
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="16"/>
+      <c r="I124" s="17"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="9" t="s">
         <v>45</v>
       </c>
@@ -2615,10 +2637,10 @@
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="16"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="9" t="s">
         <v>46</v>
       </c>
@@ -2628,7 +2650,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="17"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -2650,6 +2672,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="I16:I25"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="I40:I47"/>
+    <mergeCell ref="I48:I54"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="I80:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I100"/>
+    <mergeCell ref="I101:I107"/>
+    <mergeCell ref="I108:I116"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A100"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I117:I126"/>
     <mergeCell ref="A117:A126"/>
@@ -2666,27 +2709,6 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="I48:I54"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="I80:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I100"/>
-    <mergeCell ref="I101:I107"/>
-    <mergeCell ref="I108:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58F0F4-2D03-44DA-AF7F-6AD016DB08B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C05075-FFC5-4CA3-A343-E154FB75DF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$3:$I$139</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="121">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -274,6 +277,120 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>reverse a linkedlist</t>
+  </si>
+  <si>
+    <t>reverse a sub-list</t>
+  </si>
+  <si>
+    <t>reverse every k-element sub-list</t>
+  </si>
+  <si>
+    <t>reverse alternating k-element sub-list</t>
+  </si>
+  <si>
+    <t>rotate a linked list</t>
+  </si>
+  <si>
+    <t>find the median of a number stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliding window median </t>
+  </si>
+  <si>
+    <t>maximise capital</t>
+  </si>
+  <si>
+    <t>next interval</t>
+  </si>
+  <si>
+    <t>subsets with duplicates</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>string permutations by changing case</t>
+  </si>
+  <si>
+    <t>balanced parentheses</t>
+  </si>
+  <si>
+    <t>unique generalized abbreviations</t>
+  </si>
+  <si>
+    <t>evaluate expressions</t>
+  </si>
+  <si>
+    <t>structurally unique binary search trees</t>
+  </si>
+  <si>
+    <t>order-agnostic binary search</t>
+  </si>
+  <si>
+    <t>ceiling of a number</t>
+  </si>
+  <si>
+    <t>next letter</t>
+  </si>
+  <si>
+    <t>number range</t>
+  </si>
+  <si>
+    <t>search in a sorted infinite array</t>
+  </si>
+  <si>
+    <t>minimum difference element</t>
+  </si>
+  <si>
+    <t>bitonic array maximum</t>
+  </si>
+  <si>
+    <t>search in a bitonic array</t>
+  </si>
+  <si>
+    <t>search in a rotated array</t>
+  </si>
+  <si>
+    <t>rotation count</t>
+  </si>
+  <si>
+    <t>count of structurally unique binary search trees</t>
+  </si>
+  <si>
+    <t>topological sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>all tasks scheduling orders</t>
+  </si>
+  <si>
+    <t>tasks scheduling order</t>
+  </si>
+  <si>
+    <t>tasks scheduling</t>
+  </si>
+  <si>
+    <t>alien dictionary</t>
+  </si>
+  <si>
+    <t>reconstructing a sequence</t>
+  </si>
+  <si>
+    <t>minimum height tree</t>
+  </si>
+  <si>
+    <t>invert binary tree</t>
+  </si>
+  <si>
+    <t>least common ancestor</t>
+  </si>
+  <si>
+    <t>Covered in Prep</t>
   </si>
 </sst>
 </file>
@@ -354,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -495,6 +612,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -502,7 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,62 +681,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -880,46 +1051,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="6"/>
     <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="15" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -935,11 +1110,12 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -954,13 +1130,16 @@
       <c r="G3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -973,11 +1152,14 @@
       <c r="G4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -990,11 +1172,14 @@
       <c r="G5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1007,11 +1192,11 @@
       <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1024,11 +1209,14 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1041,11 +1229,11 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1058,11 +1246,11 @@
       <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1075,11 +1263,11 @@
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1092,11 +1280,11 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1105,11 +1293,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1118,33 +1306,33 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="H15" s="12"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1155,11 +1343,11 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1168,11 +1356,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1181,11 +1369,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1194,11 +1382,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1207,11 +1395,11 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1220,54 +1408,54 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="H25" s="12"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1282,13 +1470,13 @@
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1301,11 +1489,11 @@
       <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1314,55 +1502,55 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="H32" s="12"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1371,77 +1559,77 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="H39" s="12"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1456,15 +1644,15 @@
       <c r="G40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="H40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1477,13 +1665,13 @@
       <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="H41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1496,13 +1684,13 @@
       <c r="G42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="H42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1515,13 +1703,13 @@
       <c r="G43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="H43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1534,13 +1722,13 @@
       <c r="G44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="H44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1553,13 +1741,13 @@
       <c r="G45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="H45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1568,100 +1756,129 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="H46" s="12"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="H47" s="12"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="B48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2"/>
+      <c r="G50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="2"/>
+      <c r="H51" s="12"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="H53" s="12"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="H54" s="12"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1670,66 +1887,66 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="28"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="H56" s="12"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="H57" s="12"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="H58" s="12"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="H59" s="12"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="H60" s="12"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2"/>
@@ -1738,412 +1955,422 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="H61" s="12"/>
+      <c r="J61" s="28"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="H62" s="12"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="H63" s="12"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="20"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="H64" s="12"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="H65" s="12"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="H66" s="12"/>
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="H67" s="12"/>
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="21"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="H68" s="12"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="2"/>
+      <c r="H69" s="12"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="2"/>
+      <c r="H70" s="12"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="2"/>
+      <c r="H71" s="12"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="20"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="2"/>
+      <c r="H72" s="12"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2"/>
+      <c r="H73" s="12"/>
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="2"/>
+      <c r="H74" s="12"/>
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="2"/>
+      <c r="H75" s="12"/>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="2"/>
+      <c r="H76" s="12"/>
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="2"/>
+      <c r="H77" s="12"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="2"/>
+      <c r="H78" s="12"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2"/>
+      <c r="H79" s="12"/>
+      <c r="J79" s="28"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="2"/>
+      <c r="H80" s="12"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="2"/>
+      <c r="H81" s="12"/>
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="2"/>
+      <c r="H82" s="12"/>
+      <c r="J82" s="29"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="20"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="2"/>
+      <c r="H83" s="12"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="20"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="2"/>
+      <c r="H84" s="12"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="2"/>
+      <c r="H85" s="12"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="2"/>
+      <c r="H86" s="12"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="H87" s="12"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="20"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="H88" s="12"/>
+      <c r="J88" s="28"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="2"/>
+      <c r="H89" s="12"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="20"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="H90" s="12"/>
+      <c r="J90" s="29"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="21"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H91" s="12"/>
+      <c r="J91" s="29"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="J92" s="29"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="20"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="J93" s="29"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="20"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="B95" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
@@ -2151,130 +2378,100 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
+      <c r="G95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" s="28"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
       <c r="B96" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="J96" s="29"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
       <c r="B97" s="7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="20"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="J97" s="29"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="20"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="9" t="s">
-        <v>73</v>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="20"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+      <c r="H99" s="12"/>
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
       <c r="B100" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I100" s="21"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I101" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="J101" s="32"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="B102" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>
@@ -2282,18 +2479,20 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I102" s="20"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+      <c r="G102" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
       <c r="B103" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
@@ -2301,18 +2500,18 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+      <c r="G103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" s="29"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
       <c r="B104" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>33</v>
@@ -2320,18 +2519,18 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="31" t="s">
-        <v>79</v>
+      <c r="G104" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" s="29"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>33</v>
@@ -2339,18 +2538,18 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="9" t="s">
-        <v>80</v>
+      <c r="G105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" s="29"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>33</v>
@@ -2358,357 +2557,581 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" s="1"/>
+      <c r="G106" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="29"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="21"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="1"/>
+      <c r="G107" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" s="29"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="2"/>
+      <c r="G108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" s="29"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="12"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="20"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="1"/>
+      <c r="H109" s="12"/>
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="20"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" s="32"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="29"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="20"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="29"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="20"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" s="29"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="20"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" s="29"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="21"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="J116" s="29"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I117" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="J117" s="32"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="B118" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I118" s="17"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="J118" s="28"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
       <c r="B119" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I119" s="17"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="J119" s="29"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="29"/>
       <c r="B120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I120" s="17"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="J120" s="29"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I121" s="17"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="J121" s="29"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I122" s="17"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="J122" s="29"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I123" s="17"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
-      <c r="B124" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="J123" s="29"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="17"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H124" s="12"/>
+      <c r="J124" s="29"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="17"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
-      <c r="B126" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="H125" s="12"/>
+      <c r="J125" s="29"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="32"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="18"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C127" s="1"/>
+      <c r="H126" s="12"/>
+      <c r="J126" s="32"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
+      <c r="G127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J128" s="29"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="29"/>
+      <c r="B129" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129" s="29"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="29"/>
+      <c r="B130" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130" s="29"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="29"/>
+      <c r="B131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J131" s="29"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
+      <c r="B132" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J132" s="29"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="29"/>
+      <c r="B133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J133" s="29"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="J134" s="29"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="29"/>
+      <c r="B135" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="J135" s="29"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="29"/>
+      <c r="B136" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="J136" s="32"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="12"/>
+      <c r="J137" s="41"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="12"/>
+      <c r="J138" s="41"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="26"/>
+      <c r="B139" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="12"/>
+      <c r="J139" s="41"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="I40:I47"/>
-    <mergeCell ref="I48:I54"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="I80:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I100"/>
-    <mergeCell ref="I101:I107"/>
-    <mergeCell ref="I108:I116"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A100"/>
+  <mergeCells count="39">
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J118:J126"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J127:J136"/>
+    <mergeCell ref="J111:J117"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J95:J101"/>
+    <mergeCell ref="J88:J94"/>
+    <mergeCell ref="J79:J87"/>
+    <mergeCell ref="J69:J78"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J33:J39"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="A137:A139"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I117:I126"/>
-    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="A127:A136"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="I3:I15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C05075-FFC5-4CA3-A343-E154FB75DF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DF81E-07BA-4720-9325-EB8FC1536131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12900" yWindow="5070" windowWidth="21600" windowHeight="11385" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -714,6 +714,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,24 +753,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,24 +766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,32 +1069,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1110,12 +1110,12 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="40"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1134,12 +1134,12 @@
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1156,10 +1156,10 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="29"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1176,10 +1176,10 @@
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1193,10 +1193,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="J6" s="29"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1213,10 +1213,10 @@
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1230,10 +1230,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="J8" s="29"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1247,10 +1247,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1264,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="J10" s="29"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1294,10 +1294,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1307,10 +1307,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1318,10 +1318,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1329,10 +1329,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1344,10 +1344,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1357,10 +1357,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1370,10 +1370,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1383,10 +1383,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1396,10 +1396,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1409,20 +1409,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="J21" s="29"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="26"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1430,10 +1430,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1441,10 +1441,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1452,10 +1452,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="J25" s="32"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1471,12 +1471,12 @@
         <v>33</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1503,10 +1503,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="J28" s="37"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1514,10 +1514,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1525,10 +1525,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1536,10 +1536,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="J31" s="37"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1547,10 +1547,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="J32" s="38"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1560,10 +1560,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="J33" s="28"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1571,10 +1571,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="J34" s="29"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1582,10 +1582,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="J35" s="29"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1593,10 +1593,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="J36" s="29"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1604,10 +1604,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="J37" s="29"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1615,10 +1615,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1626,10 +1626,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1647,12 +1647,12 @@
       <c r="H40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1668,10 +1668,10 @@
       <c r="H41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="29"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1687,10 +1687,10 @@
       <c r="H42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="29"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1706,10 +1706,10 @@
       <c r="H43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="29"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1725,10 +1725,10 @@
       <c r="H44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="29"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1744,10 +1744,10 @@
       <c r="H45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="29"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1757,10 +1757,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="J46" s="29"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1768,10 +1768,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -1789,10 +1789,10 @@
       <c r="H48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="28"/>
+      <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
@@ -1808,10 +1808,10 @@
       <c r="H49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="29"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="7" t="s">
         <v>85</v>
       </c>
@@ -1827,10 +1827,10 @@
       <c r="H50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="29"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="15" t="s">
         <v>86</v>
       </c>
@@ -1840,10 +1840,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="J51" s="29"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="15" t="s">
         <v>87</v>
       </c>
@@ -1853,10 +1853,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="J52" s="29"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1864,10 +1864,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="J53" s="29"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1875,10 +1875,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1888,10 +1888,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="J55" s="28"/>
+      <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1899,10 +1899,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="J56" s="29"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1910,10 +1910,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="J57" s="29"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1921,10 +1921,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="J58" s="29"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1932,10 +1932,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="J59" s="29"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1943,10 +1943,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2"/>
@@ -1956,10 +1956,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="J61" s="28"/>
+      <c r="J61" s="25"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1967,10 +1967,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="J62" s="29"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1978,10 +1978,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1989,10 +1989,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="J64" s="29"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2000,10 +2000,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="J65" s="29"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2011,10 +2011,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="J66" s="29"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2022,10 +2022,10 @@
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="J67" s="29"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2033,10 +2033,10 @@
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="J68" s="32"/>
+      <c r="J68" s="27"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -2048,10 +2048,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="J69" s="28"/>
+      <c r="J69" s="25"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="7" t="s">
         <v>100</v>
       </c>
@@ -2061,10 +2061,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="J70" s="29"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="7" t="s">
         <v>101</v>
       </c>
@@ -2074,10 +2074,10 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
-      <c r="J71" s="29"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
         <v>102</v>
       </c>
@@ -2087,10 +2087,10 @@
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="J72" s="29"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
         <v>103</v>
       </c>
@@ -2100,10 +2100,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="J73" s="29"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="7" t="s">
         <v>104</v>
       </c>
@@ -2113,10 +2113,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="J74" s="29"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="7" t="s">
         <v>105</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-      <c r="J75" s="29"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="9" t="s">
         <v>106</v>
       </c>
@@ -2139,10 +2139,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="J76" s="29"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="9" t="s">
         <v>107</v>
       </c>
@@ -2152,10 +2152,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-      <c r="J77" s="29"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="9" t="s">
         <v>108</v>
       </c>
@@ -2165,10 +2165,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="J78" s="32"/>
+      <c r="J78" s="27"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2180,10 +2180,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="J79" s="28"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="21" t="s">
         <v>92</v>
       </c>
@@ -2193,10 +2193,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="J80" s="29"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="21" t="s">
         <v>93</v>
       </c>
@@ -2206,10 +2206,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="J81" s="29"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="21" t="s">
         <v>94</v>
       </c>
@@ -2219,10 +2219,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="J82" s="29"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="21" t="s">
         <v>95</v>
       </c>
@@ -2232,10 +2232,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="J83" s="29"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="21" t="s">
         <v>96</v>
       </c>
@@ -2245,10 +2245,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="J84" s="29"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="21" t="s">
         <v>97</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="J85" s="29"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="22" t="s">
         <v>98</v>
       </c>
@@ -2271,10 +2271,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="J86" s="29"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="22" t="s">
         <v>109</v>
       </c>
@@ -2284,10 +2284,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="J87" s="32"/>
+      <c r="J87" s="27"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2"/>
@@ -2297,10 +2297,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
-      <c r="J88" s="28"/>
+      <c r="J88" s="25"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2308,10 +2308,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
-      <c r="J89" s="29"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="23"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2319,10 +2319,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
-      <c r="J90" s="29"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2330,10 +2330,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
-      <c r="J91" s="29"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2341,10 +2341,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
-      <c r="J92" s="29"/>
+      <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2352,10 +2352,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
-      <c r="J93" s="29"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2363,10 +2363,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
-      <c r="J94" s="32"/>
+      <c r="J94" s="27"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -2384,10 +2384,10 @@
       <c r="H95" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J95" s="28"/>
+      <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="7" t="s">
         <v>114</v>
       </c>
@@ -2397,10 +2397,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-      <c r="J96" s="29"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
+      <c r="A97" s="35"/>
       <c r="B97" s="7" t="s">
         <v>113</v>
       </c>
@@ -2412,10 +2412,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-      <c r="J97" s="29"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
         <v>112</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="F98" s="1"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-      <c r="J98" s="29"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="7" t="s">
         <v>115</v>
       </c>
@@ -2438,10 +2438,10 @@
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="J99" s="29"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="9" t="s">
         <v>116</v>
       </c>
@@ -2451,10 +2451,10 @@
       <c r="F100" s="1"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="J100" s="29"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="9" t="s">
         <v>117</v>
       </c>
@@ -2464,10 +2464,10 @@
       <c r="F101" s="1"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-      <c r="J101" s="32"/>
+      <c r="J101" s="27"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -2485,12 +2485,15 @@
       <c r="H102" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J102" s="28" t="s">
+      <c r="I102" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
         <v>67</v>
       </c>
@@ -2506,10 +2509,13 @@
       <c r="H103" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J103" s="29"/>
+      <c r="I103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
         <v>68</v>
       </c>
@@ -2525,10 +2531,13 @@
       <c r="H104" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J104" s="29"/>
+      <c r="I104" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" s="26"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
         <v>69</v>
       </c>
@@ -2544,10 +2553,13 @@
       <c r="H105" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J105" s="29"/>
+      <c r="I105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" s="26"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
         <v>70</v>
       </c>
@@ -2563,10 +2575,13 @@
       <c r="H106" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J106" s="29"/>
+      <c r="I106" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="26"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
         <v>71</v>
       </c>
@@ -2582,10 +2597,13 @@
       <c r="H107" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J107" s="29"/>
+      <c r="I107" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" s="26"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="14" t="s">
         <v>72</v>
       </c>
@@ -2601,10 +2619,13 @@
       <c r="H108" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J108" s="29"/>
+      <c r="I108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="9" t="s">
         <v>73</v>
       </c>
@@ -2614,10 +2635,13 @@
       <c r="F109" s="1"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-      <c r="J109" s="29"/>
+      <c r="I109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="9" t="s">
         <v>74</v>
       </c>
@@ -2633,10 +2657,13 @@
       <c r="H110" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J110" s="32"/>
+      <c r="I110" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" s="27"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -2654,12 +2681,12 @@
       <c r="H111" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J111" s="28" t="s">
+      <c r="J111" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
         <v>76</v>
       </c>
@@ -2675,10 +2702,10 @@
       <c r="H112" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J112" s="29"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
         <v>77</v>
       </c>
@@ -2694,10 +2721,10 @@
       <c r="H113" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J113" s="29"/>
+      <c r="J113" s="26"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
         <v>78</v>
       </c>
@@ -2713,10 +2740,10 @@
       <c r="H114" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J114" s="29"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="14" t="s">
         <v>79</v>
       </c>
@@ -2732,10 +2759,10 @@
       <c r="H115" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J115" s="29"/>
+      <c r="J115" s="26"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="9" t="s">
         <v>80</v>
       </c>
@@ -2749,10 +2776,10 @@
         <v>33</v>
       </c>
       <c r="H116" s="12"/>
-      <c r="J116" s="29"/>
+      <c r="J116" s="26"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="9" t="s">
         <v>81</v>
       </c>
@@ -2762,10 +2789,10 @@
       <c r="F117" s="1"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
-      <c r="J117" s="32"/>
+      <c r="J117" s="27"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -2777,10 +2804,10 @@
       <c r="F118" s="1"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="J118" s="28"/>
+      <c r="J118" s="25"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="26"/>
       <c r="B119" s="7" t="s">
         <v>89</v>
       </c>
@@ -2790,10 +2817,10 @@
       <c r="F119" s="1"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
-      <c r="J119" s="29"/>
+      <c r="J119" s="26"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="A120" s="26"/>
       <c r="B120" s="7" t="s">
         <v>90</v>
       </c>
@@ -2803,10 +2830,10 @@
       <c r="F120" s="1"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-      <c r="J120" s="29"/>
+      <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="A121" s="26"/>
       <c r="B121" s="9" t="s">
         <v>91</v>
       </c>
@@ -2816,10 +2843,10 @@
       <c r="F121" s="1"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
-      <c r="J121" s="29"/>
+      <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="A122" s="26"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2827,10 +2854,10 @@
       <c r="F122" s="1"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-      <c r="J122" s="29"/>
+      <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2838,10 +2865,10 @@
       <c r="F123" s="1"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="J123" s="29"/>
+      <c r="J123" s="26"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2849,10 +2876,10 @@
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="J124" s="29"/>
+      <c r="J124" s="26"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2860,10 +2887,10 @@
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
-      <c r="J125" s="29"/>
+      <c r="J125" s="26"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2871,10 +2898,10 @@
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
-      <c r="J126" s="32"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B127" s="2"/>
@@ -2890,12 +2917,12 @@
       <c r="H127" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J127" s="28" t="s">
+      <c r="J127" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+      <c r="A128" s="26"/>
       <c r="B128" s="7" t="s">
         <v>38</v>
       </c>
@@ -2911,10 +2938,10 @@
       <c r="H128" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J128" s="29"/>
+      <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="A129" s="26"/>
       <c r="B129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2930,10 +2957,10 @@
       <c r="H129" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J129" s="29"/>
+      <c r="J129" s="26"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="26"/>
       <c r="B130" s="7" t="s">
         <v>40</v>
       </c>
@@ -2949,10 +2976,10 @@
       <c r="H130" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J130" s="29"/>
+      <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
+      <c r="A131" s="26"/>
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
@@ -2968,10 +2995,10 @@
       <c r="H131" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J131" s="29"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+      <c r="A132" s="26"/>
       <c r="B132" s="7" t="s">
         <v>42</v>
       </c>
@@ -2987,10 +3014,10 @@
       <c r="H132" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J132" s="29"/>
+      <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+      <c r="A133" s="26"/>
       <c r="B133" s="7" t="s">
         <v>43</v>
       </c>
@@ -3006,10 +3033,10 @@
       <c r="H133" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J133" s="29"/>
+      <c r="J133" s="26"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="A134" s="26"/>
       <c r="B134" s="7" t="s">
         <v>44</v>
       </c>
@@ -3019,10 +3046,10 @@
       <c r="F134" s="1"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="J134" s="29"/>
+      <c r="J134" s="26"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
+      <c r="A135" s="26"/>
       <c r="B135" s="9" t="s">
         <v>45</v>
       </c>
@@ -3032,10 +3059,10 @@
       <c r="F135" s="1"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
-      <c r="J135" s="29"/>
+      <c r="J135" s="26"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="17" t="s">
         <v>46</v>
       </c>
@@ -3045,10 +3072,10 @@
       <c r="F136" s="16"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="J136" s="32"/>
+      <c r="J136" s="27"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -3060,10 +3087,10 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="12"/>
-      <c r="J137" s="41"/>
+      <c r="J137" s="24"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
+      <c r="A138" s="35"/>
       <c r="B138" s="20" t="s">
         <v>119</v>
       </c>
@@ -3073,10 +3100,10 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="12"/>
-      <c r="J138" s="41"/>
+      <c r="J138" s="24"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
+      <c r="A139" s="36"/>
       <c r="B139" s="20" t="s">
         <v>47</v>
       </c>
@@ -3086,39 +3113,13 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="12"/>
-      <c r="J139" s="41"/>
+      <c r="J139" s="24"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J16:J25"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J118:J126"/>
-    <mergeCell ref="J3:J15"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J127:J136"/>
-    <mergeCell ref="J111:J117"/>
-    <mergeCell ref="J102:J110"/>
-    <mergeCell ref="J95:J101"/>
-    <mergeCell ref="J88:J94"/>
-    <mergeCell ref="J79:J87"/>
-    <mergeCell ref="J69:J78"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="J33:J39"/>
-    <mergeCell ref="J26:J32"/>
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="A118:A126"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A95:A101"/>
     <mergeCell ref="A137:A139"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A127:A136"/>
@@ -3132,6 +3133,32 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="J127:J136"/>
+    <mergeCell ref="J111:J117"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J95:J101"/>
+    <mergeCell ref="J88:J94"/>
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J118:J126"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J79:J87"/>
+    <mergeCell ref="J69:J78"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J33:J39"/>
+    <mergeCell ref="J26:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DF81E-07BA-4720-9325-EB8FC1536131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA59C7E-F43D-478D-9132-F9D54F8A0303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12900" yWindow="5070" windowWidth="21600" windowHeight="11385" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14310" yWindow="4965" windowWidth="21600" windowHeight="11385" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -391,6 +391,27 @@
   </si>
   <si>
     <t>Covered in Prep</t>
+  </si>
+  <si>
+    <t>merge intervals</t>
+  </si>
+  <si>
+    <t>insert interval</t>
+  </si>
+  <si>
+    <t>intervals intersection</t>
+  </si>
+  <si>
+    <t>conflicting appointments</t>
+  </si>
+  <si>
+    <t>minimum meeting rooms</t>
+  </si>
+  <si>
+    <t>maximum CPU load</t>
+  </si>
+  <si>
+    <t>employee free time</t>
   </si>
 </sst>
 </file>
@@ -643,7 +664,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,16 +738,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,28 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,32 +1093,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1110,12 +1134,12 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1134,12 +1158,12 @@
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1156,10 +1180,10 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1176,10 +1200,10 @@
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1193,10 +1217,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1213,10 +1237,10 @@
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1230,10 +1254,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1247,10 +1271,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1264,10 +1288,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1281,10 +1305,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1294,10 +1318,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1307,10 +1331,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1318,10 +1342,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1329,10 +1353,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1344,10 +1368,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1357,10 +1381,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="J17" s="26"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1370,10 +1394,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1383,10 +1407,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1396,10 +1420,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="J20" s="26"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1409,20 +1433,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="J21" s="26"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="30"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="J22" s="26"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1430,10 +1454,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="J23" s="26"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1441,10 +1465,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="J24" s="26"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1452,10 +1476,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="J25" s="27"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1471,12 +1495,12 @@
         <v>33</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1490,10 +1514,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1503,10 +1527,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="J28" s="32"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1514,10 +1538,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="J29" s="32"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1525,10 +1549,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="J30" s="32"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1536,10 +1560,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="J31" s="32"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1547,10 +1571,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="J32" s="33"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1560,10 +1584,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1571,10 +1595,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="J34" s="26"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1582,10 +1606,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="J35" s="26"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1593,10 +1617,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="J36" s="26"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1604,10 +1628,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1615,10 +1639,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="26"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1626,10 +1650,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="J39" s="27"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1647,12 +1671,12 @@
       <c r="H40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1668,10 +1692,10 @@
       <c r="H41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1687,10 +1711,10 @@
       <c r="H42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1706,10 +1730,10 @@
       <c r="H43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1725,10 +1749,10 @@
       <c r="H44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="26"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1744,10 +1768,10 @@
       <c r="H45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1757,10 +1781,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="J46" s="26"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1768,10 +1792,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="J47" s="27"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -1789,10 +1813,10 @@
       <c r="H48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="25"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
@@ -1808,10 +1832,10 @@
       <c r="H49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="26"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="7" t="s">
         <v>85</v>
       </c>
@@ -1827,10 +1851,10 @@
       <c r="H50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="26"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="15" t="s">
         <v>86</v>
       </c>
@@ -1840,10 +1864,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="J51" s="26"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="15" t="s">
         <v>87</v>
       </c>
@@ -1853,10 +1877,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="J52" s="26"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1864,10 +1888,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="J53" s="26"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1875,10 +1899,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="J54" s="27"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1888,10 +1912,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1899,10 +1923,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="J56" s="26"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1910,10 +1934,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="J57" s="26"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1921,10 +1945,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="J58" s="26"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1932,10 +1956,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="J59" s="26"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1943,89 +1967,103 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="J60" s="27"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="J61" s="25"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="J62" s="26"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="J63" s="26"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="J64" s="26"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="J65" s="26"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="J66" s="26"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="J67" s="26"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2033,10 +2071,10 @@
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="J68" s="27"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -2048,10 +2086,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="J69" s="25"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="7" t="s">
         <v>100</v>
       </c>
@@ -2061,10 +2099,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="J70" s="26"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="7" t="s">
         <v>101</v>
       </c>
@@ -2074,10 +2112,10 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
-      <c r="J71" s="26"/>
+      <c r="J71" s="30"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="7" t="s">
         <v>102</v>
       </c>
@@ -2087,10 +2125,10 @@
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="J72" s="26"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="7" t="s">
         <v>103</v>
       </c>
@@ -2100,10 +2138,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="J73" s="26"/>
+      <c r="J73" s="30"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="7" t="s">
         <v>104</v>
       </c>
@@ -2113,10 +2151,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="J74" s="26"/>
+      <c r="J74" s="30"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="7" t="s">
         <v>105</v>
       </c>
@@ -2126,10 +2164,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-      <c r="J75" s="26"/>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="9" t="s">
         <v>106</v>
       </c>
@@ -2139,10 +2177,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="J76" s="26"/>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="9" t="s">
         <v>107</v>
       </c>
@@ -2152,10 +2190,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-      <c r="J77" s="26"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="9" t="s">
         <v>108</v>
       </c>
@@ -2165,10 +2203,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="J78" s="27"/>
+      <c r="J78" s="33"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2180,10 +2218,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="J79" s="25"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="21" t="s">
         <v>92</v>
       </c>
@@ -2193,10 +2231,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="J80" s="26"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="21" t="s">
         <v>93</v>
       </c>
@@ -2206,10 +2244,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="J81" s="26"/>
+      <c r="J81" s="30"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="21" t="s">
         <v>94</v>
       </c>
@@ -2219,10 +2257,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="J82" s="26"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="21" t="s">
         <v>95</v>
       </c>
@@ -2232,10 +2270,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="J83" s="26"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="21" t="s">
         <v>96</v>
       </c>
@@ -2245,10 +2283,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="J84" s="26"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="21" t="s">
         <v>97</v>
       </c>
@@ -2258,10 +2296,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="J85" s="26"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="22" t="s">
         <v>98</v>
       </c>
@@ -2271,10 +2309,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="J86" s="26"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="22" t="s">
         <v>109</v>
       </c>
@@ -2284,10 +2322,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="J87" s="27"/>
+      <c r="J87" s="33"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2"/>
@@ -2297,10 +2335,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
-      <c r="J88" s="25"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2308,10 +2346,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
-      <c r="J89" s="26"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="23"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2319,10 +2357,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
-      <c r="J90" s="26"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2330,10 +2368,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
-      <c r="J91" s="26"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2341,10 +2379,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
-      <c r="J92" s="26"/>
+      <c r="J92" s="30"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2352,10 +2390,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
-      <c r="J93" s="26"/>
+      <c r="J93" s="30"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2363,10 +2401,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
-      <c r="J94" s="27"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -2384,10 +2422,10 @@
       <c r="H95" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J95" s="25"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
+      <c r="A96" s="26"/>
       <c r="B96" s="7" t="s">
         <v>114</v>
       </c>
@@ -2397,10 +2435,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-      <c r="J96" s="26"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="7" t="s">
         <v>113</v>
       </c>
@@ -2412,10 +2450,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-      <c r="J97" s="26"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="7" t="s">
         <v>112</v>
       </c>
@@ -2425,10 +2463,10 @@
       <c r="F98" s="1"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-      <c r="J98" s="26"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="7" t="s">
         <v>115</v>
       </c>
@@ -2438,10 +2476,10 @@
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="J99" s="26"/>
+      <c r="J99" s="30"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="9" t="s">
         <v>116</v>
       </c>
@@ -2451,10 +2489,10 @@
       <c r="F100" s="1"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="J100" s="26"/>
+      <c r="J100" s="30"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
+      <c r="A101" s="27"/>
       <c r="B101" s="9" t="s">
         <v>117</v>
       </c>
@@ -2464,10 +2502,10 @@
       <c r="F101" s="1"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-      <c r="J101" s="27"/>
+      <c r="J101" s="33"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -2488,12 +2526,12 @@
       <c r="I102" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J102" s="25" t="s">
+      <c r="J102" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="7" t="s">
         <v>67</v>
       </c>
@@ -2512,10 +2550,10 @@
       <c r="I103" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J103" s="26"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="7" t="s">
         <v>68</v>
       </c>
@@ -2534,10 +2572,10 @@
       <c r="I104" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J104" s="26"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="7" t="s">
         <v>69</v>
       </c>
@@ -2556,10 +2594,10 @@
       <c r="I105" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J105" s="26"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="7" t="s">
         <v>70</v>
       </c>
@@ -2578,10 +2616,10 @@
       <c r="I106" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J106" s="26"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="7" t="s">
         <v>71</v>
       </c>
@@ -2600,10 +2638,10 @@
       <c r="I107" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J107" s="26"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="14" t="s">
         <v>72</v>
       </c>
@@ -2622,10 +2660,10 @@
       <c r="I108" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J108" s="26"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="9" t="s">
         <v>73</v>
       </c>
@@ -2638,10 +2676,10 @@
       <c r="I109" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J109" s="26"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="9" t="s">
         <v>74</v>
       </c>
@@ -2660,10 +2698,10 @@
       <c r="I110" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J110" s="27"/>
+      <c r="J110" s="33"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -2681,12 +2719,12 @@
       <c r="H111" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J111" s="25" t="s">
+      <c r="J111" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="7" t="s">
         <v>76</v>
       </c>
@@ -2702,10 +2740,10 @@
       <c r="H112" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J112" s="26"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="7" t="s">
         <v>77</v>
       </c>
@@ -2721,10 +2759,10 @@
       <c r="H113" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J113" s="26"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
+      <c r="A114" s="26"/>
       <c r="B114" s="7" t="s">
         <v>78</v>
       </c>
@@ -2740,10 +2778,10 @@
       <c r="H114" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J114" s="26"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
+      <c r="A115" s="26"/>
       <c r="B115" s="14" t="s">
         <v>79</v>
       </c>
@@ -2759,10 +2797,10 @@
       <c r="H115" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J115" s="26"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="9" t="s">
         <v>80</v>
       </c>
@@ -2776,10 +2814,10 @@
         <v>33</v>
       </c>
       <c r="H116" s="12"/>
-      <c r="J116" s="26"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
+      <c r="A117" s="27"/>
       <c r="B117" s="9" t="s">
         <v>81</v>
       </c>
@@ -2789,10 +2827,10 @@
       <c r="F117" s="1"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
-      <c r="J117" s="27"/>
+      <c r="J117" s="33"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -2804,10 +2842,10 @@
       <c r="F118" s="1"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="J118" s="25"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="7" t="s">
         <v>89</v>
       </c>
@@ -2817,10 +2855,10 @@
       <c r="F119" s="1"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
-      <c r="J119" s="26"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="7" t="s">
         <v>90</v>
       </c>
@@ -2830,10 +2868,10 @@
       <c r="F120" s="1"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-      <c r="J120" s="26"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="9" t="s">
         <v>91</v>
       </c>
@@ -2843,10 +2881,10 @@
       <c r="F121" s="1"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
-      <c r="J121" s="26"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2854,10 +2892,10 @@
       <c r="F122" s="1"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-      <c r="J122" s="26"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2865,10 +2903,10 @@
       <c r="F123" s="1"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="J123" s="26"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2876,10 +2914,10 @@
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="J124" s="26"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2887,10 +2925,10 @@
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
-      <c r="J125" s="26"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2898,10 +2936,10 @@
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
-      <c r="J126" s="27"/>
+      <c r="J126" s="33"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B127" s="2"/>
@@ -2917,12 +2955,12 @@
       <c r="H127" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J127" s="25" t="s">
+      <c r="J127" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
+      <c r="A128" s="30"/>
       <c r="B128" s="7" t="s">
         <v>38</v>
       </c>
@@ -2938,10 +2976,10 @@
       <c r="H128" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J128" s="26"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2957,10 +2995,10 @@
       <c r="H129" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J129" s="26"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+      <c r="A130" s="30"/>
       <c r="B130" s="7" t="s">
         <v>40</v>
       </c>
@@ -2976,10 +3014,10 @@
       <c r="H130" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J130" s="26"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+      <c r="A131" s="30"/>
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
@@ -2995,10 +3033,10 @@
       <c r="H131" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J131" s="26"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
+      <c r="A132" s="30"/>
       <c r="B132" s="7" t="s">
         <v>42</v>
       </c>
@@ -3014,10 +3052,10 @@
       <c r="H132" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J132" s="26"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
+      <c r="A133" s="30"/>
       <c r="B133" s="7" t="s">
         <v>43</v>
       </c>
@@ -3033,10 +3071,10 @@
       <c r="H133" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J133" s="26"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="30"/>
       <c r="B134" s="7" t="s">
         <v>44</v>
       </c>
@@ -3046,10 +3084,10 @@
       <c r="F134" s="1"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="J134" s="26"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="9" t="s">
         <v>45</v>
       </c>
@@ -3059,10 +3097,10 @@
       <c r="F135" s="1"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
-      <c r="J135" s="26"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
+      <c r="A136" s="30"/>
       <c r="B136" s="17" t="s">
         <v>46</v>
       </c>
@@ -3072,10 +3110,10 @@
       <c r="F136" s="16"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="J136" s="27"/>
+      <c r="J136" s="33"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -3090,7 +3128,7 @@
       <c r="J137" s="24"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
+      <c r="A138" s="26"/>
       <c r="B138" s="20" t="s">
         <v>119</v>
       </c>
@@ -3103,7 +3141,7 @@
       <c r="J138" s="24"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
+      <c r="A139" s="27"/>
       <c r="B139" s="20" t="s">
         <v>47</v>
       </c>
@@ -3120,6 +3158,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J118:J126"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J79:J87"/>
+    <mergeCell ref="J69:J78"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J33:J39"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="J127:J136"/>
+    <mergeCell ref="J111:J117"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J95:J101"/>
+    <mergeCell ref="J88:J94"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A95:A101"/>
     <mergeCell ref="A137:A139"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A127:A136"/>
@@ -3136,29 +3197,6 @@
     <mergeCell ref="A102:A110"/>
     <mergeCell ref="A111:A117"/>
     <mergeCell ref="A118:A126"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="J127:J136"/>
-    <mergeCell ref="J111:J117"/>
-    <mergeCell ref="J102:J110"/>
-    <mergeCell ref="J95:J101"/>
-    <mergeCell ref="J88:J94"/>
-    <mergeCell ref="J16:J25"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J118:J126"/>
-    <mergeCell ref="J3:J15"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J79:J87"/>
-    <mergeCell ref="J69:J78"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="J33:J39"/>
-    <mergeCell ref="J26:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/coding-Progress.xlsx
+++ b/coding-Progress.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MyProjects\Grokking-The-Coding-Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\aditya109\learning-myself\Grokking-The-Coding-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA59C7E-F43D-478D-9132-F9D54F8A0303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6E3B5-4263-43B7-9DAA-B3D3576BE86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14310" yWindow="4965" windowWidth="21600" windowHeight="11385" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$3:$I$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$3:$I$141</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="128">
   <si>
     <t>Problem Pattern</t>
   </si>
@@ -738,6 +738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,21 +780,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,24 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,50 +1075,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="14.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="6"/>
+    <col min="7" max="7" width="14.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
@@ -1134,12 +1134,12 @@
       <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="38"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1155,15 +1155,12 @@
         <v>33</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="J3" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1177,13 +1174,10 @@
         <v>33</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1197,13 +1191,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1217,10 +1208,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1234,13 +1225,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1254,10 +1242,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -1271,10 +1259,10 @@
         <v>33</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1288,10 +1276,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -1305,10 +1293,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1318,10 +1306,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1331,10 +1319,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1342,10 +1330,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1353,10 +1341,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1368,10 +1356,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -1381,10 +1369,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
       <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1394,10 +1382,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
       <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
@@ -1407,10 +1395,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1420,10 +1408,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
       <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
@@ -1433,20 +1421,20 @@
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1454,10 +1442,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1465,10 +1453,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1476,10 +1464,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1495,12 +1483,12 @@
         <v>33</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="J26" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="J26" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1514,10 +1502,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
@@ -1527,10 +1515,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1538,10 +1526,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1549,10 +1537,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1560,10 +1548,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1571,10 +1559,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
@@ -1584,10 +1572,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1595,10 +1583,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1606,10 +1594,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1617,10 +1605,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1628,10 +1616,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1639,10 +1627,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1650,10 +1638,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -1671,12 +1659,12 @@
       <c r="H40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="J40" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
       <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
@@ -1692,10 +1680,10 @@
       <c r="H41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1711,10 +1699,10 @@
       <c r="H42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
       <c r="B43" s="7" t="s">
         <v>62</v>
       </c>
@@ -1730,10 +1718,10 @@
       <c r="H43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="30"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
       <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
@@ -1749,10 +1737,10 @@
       <c r="H44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
       <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
@@ -1768,10 +1756,10 @@
       <c r="H45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
@@ -1781,10 +1769,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="37"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1792,10 +1780,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="J47" s="33"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -1813,10 +1801,10 @@
       <c r="H48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="29"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
       <c r="B49" s="7" t="s">
         <v>84</v>
       </c>
@@ -1832,10 +1820,10 @@
       <c r="H49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
       <c r="B50" s="7" t="s">
         <v>85</v>
       </c>
@@ -1851,10 +1839,10 @@
       <c r="H50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
       <c r="B51" s="15" t="s">
         <v>86</v>
       </c>
@@ -1864,10 +1852,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
       <c r="B52" s="15" t="s">
         <v>87</v>
       </c>
@@ -1877,10 +1865,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1888,10 +1876,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1899,10 +1887,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="J54" s="33"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2"/>
@@ -1912,10 +1900,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="J55" s="29"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="J55" s="25"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1923,10 +1911,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1934,10 +1922,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1945,10 +1933,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1956,10 +1944,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="J59" s="30"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1967,53 +1955,53 @@
       <c r="F60" s="1"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="J60" s="33"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="37"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="B63" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="H63" s="12"/>
-      <c r="J63" s="30"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="J63" s="25"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
       <c r="B64" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2021,12 +2009,12 @@
       <c r="F64" s="1"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="9" t="s">
-        <v>125</v>
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="34"/>
+      <c r="B65" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2034,12 +2022,12 @@
       <c r="F65" s="1"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="9" t="s">
-        <v>126</v>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2047,12 +2035,12 @@
       <c r="F66" s="1"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
       <c r="B67" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2060,25 +2048,25 @@
       <c r="F67" s="1"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="2"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="34"/>
+      <c r="B68" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="J68" s="33"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>99</v>
+      <c r="J68" s="26"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="34"/>
+      <c r="B69" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2086,25 +2074,25 @@
       <c r="F69" s="1"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="J69" s="29"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="34"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
+        <v>10</v>
+      </c>
       <c r="B71" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2112,12 +2100,12 @@
       <c r="F71" s="1"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="36"/>
       <c r="B72" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2125,12 +2113,12 @@
       <c r="F72" s="1"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
       <c r="B73" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2138,12 +2126,12 @@
       <c r="F73" s="1"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="J73" s="26"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
       <c r="B74" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2151,12 +2139,12 @@
       <c r="F74" s="1"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="J74" s="30"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
       <c r="B75" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2164,12 +2152,12 @@
       <c r="F75" s="1"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-      <c r="J75" s="30"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="9" t="s">
-        <v>106</v>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
+      <c r="B76" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2177,12 +2165,12 @@
       <c r="F76" s="1"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="J76" s="30"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="9" t="s">
-        <v>107</v>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="36"/>
+      <c r="B77" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2190,12 +2178,12 @@
       <c r="F77" s="1"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-      <c r="J77" s="30"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
       <c r="B78" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2203,14 +2191,12 @@
       <c r="F78" s="1"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="J78" s="33"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>11</v>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
+      <c r="B79" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2218,12 +2204,12 @@
       <c r="F79" s="1"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="J79" s="29"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="21" t="s">
-        <v>92</v>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="37"/>
+      <c r="B80" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2231,12 +2217,14 @@
       <c r="F80" s="1"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="J80" s="30"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="B81" s="21" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2244,12 +2232,12 @@
       <c r="F81" s="1"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="36"/>
       <c r="B82" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2257,12 +2245,12 @@
       <c r="F82" s="1"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="J82" s="30"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="J82" s="26"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="36"/>
       <c r="B83" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2270,12 +2258,12 @@
       <c r="F83" s="1"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-      <c r="J83" s="30"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="36"/>
       <c r="B84" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2283,12 +2271,12 @@
       <c r="F84" s="1"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="J84" s="30"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="36"/>
       <c r="B85" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2296,12 +2284,12 @@
       <c r="F85" s="1"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="22" t="s">
-        <v>98</v>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="36"/>
+      <c r="B86" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2309,12 +2297,12 @@
       <c r="F86" s="1"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-      <c r="J86" s="30"/>
-    </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="22" t="s">
-        <v>109</v>
+      <c r="J86" s="26"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="36"/>
+      <c r="B87" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2322,45 +2310,49 @@
       <c r="F87" s="1"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-      <c r="J87" s="33"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="2"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="36"/>
+      <c r="B88" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
-      <c r="J88" s="29"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="2"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="37"/>
+      <c r="B89" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
-      <c r="J89" s="30"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="23"/>
+      <c r="J89" s="27"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
-      <c r="J90" s="30"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="36"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2368,21 +2360,21 @@
       <c r="F91" s="1"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
-      <c r="J91" s="30"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="2"/>
+      <c r="J91" s="26"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="36"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
-      <c r="J92" s="30"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="J92" s="26"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2390,10 +2382,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
-      <c r="J93" s="30"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2401,61 +2393,55 @@
       <c r="F94" s="1"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
-      <c r="J94" s="33"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="J95" s="26"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-      <c r="J96" s="30"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="35" t="s">
+        <v>13</v>
+      </c>
       <c r="B97" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="J97" s="30"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="G97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" s="25"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
       <c r="B98" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2463,25 +2449,27 @@
       <c r="F98" s="1"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-      <c r="J98" s="30"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="J98" s="26"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="36"/>
       <c r="B99" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="J99" s="30"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="9" t="s">
-        <v>116</v>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="36"/>
+      <c r="B100" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2489,12 +2477,12 @@
       <c r="F100" s="1"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="J100" s="30"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="9" t="s">
-        <v>117</v>
+      <c r="J100" s="26"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="36"/>
+      <c r="B101" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2502,60 +2490,40 @@
       <c r="F101" s="1"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-      <c r="J101" s="33"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J101" s="26"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J102" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="J102" s="26"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="37"/>
+      <c r="B103" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J103" s="30"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="B104" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>33</v>
@@ -2572,12 +2540,14 @@
       <c r="I104" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J104" s="30"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="J104" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
       <c r="B105" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>33</v>
@@ -2594,12 +2564,12 @@
       <c r="I105" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J105" s="30"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+      <c r="J105" s="26"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="36"/>
       <c r="B106" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>33</v>
@@ -2616,12 +2586,12 @@
       <c r="I106" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="J106" s="26"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="36"/>
       <c r="B107" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>33</v>
@@ -2638,12 +2608,12 @@
       <c r="I107" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J107" s="30"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="14" t="s">
-        <v>72</v>
+      <c r="J107" s="26"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="36"/>
+      <c r="B108" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
@@ -2660,28 +2630,34 @@
       <c r="I108" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J108" s="30"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" s="1"/>
+      <c r="J108" s="26"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="36"/>
+      <c r="B109" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="I109" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J109" s="30"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="9" t="s">
-        <v>74</v>
+      <c r="J109" s="26"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="36"/>
+      <c r="B110" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>33</v>
@@ -2689,7 +2665,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H110" s="12" t="s">
@@ -2698,35 +2674,28 @@
       <c r="I110" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J110" s="33"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J110" s="26"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J111" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="7" t="s">
-        <v>76</v>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="26"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="37"/>
+      <c r="B112" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>33</v>
@@ -2740,12 +2709,17 @@
       <c r="H112" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J112" s="30"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+      <c r="I112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="B113" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>33</v>
@@ -2759,12 +2733,14 @@
       <c r="H113" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J113" s="30"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="J113" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="36"/>
       <c r="B114" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>33</v>
@@ -2776,14 +2752,14 @@
         <v>33</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J114" s="30"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="14" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="J114" s="26"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>33</v>
@@ -2797,12 +2773,12 @@
       <c r="H115" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J115" s="30"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="9" t="s">
-        <v>80</v>
+      <c r="J115" s="26"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>33</v>
@@ -2813,41 +2789,51 @@
       <c r="G116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="J116" s="30"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" s="1"/>
+      <c r="H116" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="36"/>
+      <c r="B117" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="J117" s="33"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" s="26"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="36"/>
+      <c r="B118" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="12"/>
+      <c r="G118" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H118" s="12"/>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="7" t="s">
-        <v>89</v>
+      <c r="J118" s="26"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="37"/>
+      <c r="B119" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2855,12 +2841,14 @@
       <c r="F119" s="1"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
-      <c r="J119" s="30"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="B120" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2868,12 +2856,12 @@
       <c r="F120" s="1"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-      <c r="J120" s="30"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="9" t="s">
-        <v>91</v>
+      <c r="J120" s="25"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="26"/>
+      <c r="B121" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2881,32 +2869,36 @@
       <c r="F121" s="1"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
-      <c r="J121" s="30"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="2"/>
+      <c r="J121" s="26"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="26"/>
+      <c r="B122" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-      <c r="J122" s="30"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="2"/>
+      <c r="J122" s="26"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="26"/>
+      <c r="B123" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="J123" s="30"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
+      <c r="J123" s="26"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="26"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2914,10 +2906,10 @@
       <c r="F124" s="1"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="J124" s="30"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
+      <c r="J124" s="26"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="26"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2925,10 +2917,10 @@
       <c r="F125" s="1"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
-      <c r="J125" s="30"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
+      <c r="J125" s="26"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="26"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2936,53 +2928,35 @@
       <c r="F126" s="1"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
-      <c r="J126" s="33"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="J126" s="26"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="26"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J127" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="J127" s="26"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="27"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J128" s="30"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="1" t="s">
         <v>33</v>
       </c>
@@ -2995,12 +2969,14 @@
       <c r="H129" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J129" s="30"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
+      <c r="J129" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="26"/>
       <c r="B130" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>33</v>
@@ -3014,12 +2990,12 @@
       <c r="H130" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J130" s="30"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
+      <c r="J130" s="26"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="26"/>
       <c r="B131" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>33</v>
@@ -3033,12 +3009,12 @@
       <c r="H131" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J131" s="30"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
+      <c r="J131" s="26"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="26"/>
       <c r="B132" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>33</v>
@@ -3052,12 +3028,12 @@
       <c r="H132" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J132" s="30"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
+      <c r="J132" s="26"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="26"/>
       <c r="B133" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>33</v>
@@ -3069,81 +3045,93 @@
         <v>33</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J133" s="30"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="J133" s="26"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="26"/>
       <c r="B134" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="J134" s="30"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134" s="26"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="26"/>
+      <c r="B135" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="J135" s="30"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="J136" s="33"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>118</v>
+      <c r="G135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J135" s="26"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="26"/>
+      <c r="B136" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="J136" s="26"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="26"/>
+      <c r="B137" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="12"/>
       <c r="H137" s="12"/>
-      <c r="J137" s="24"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J137" s="26"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="26"/>
-      <c r="B138" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="12"/>
-      <c r="J138" s="24"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
+      <c r="B138" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="J138" s="27"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="B139" s="20" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3153,37 +3141,40 @@
       <c r="H139" s="12"/>
       <c r="J139" s="24"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="18"/>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="36"/>
+      <c r="B140" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="12"/>
+      <c r="J140" s="24"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="37"/>
+      <c r="B141" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="12"/>
+      <c r="J141" s="24"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J16:J25"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J118:J126"/>
-    <mergeCell ref="J3:J15"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J79:J87"/>
-    <mergeCell ref="J69:J78"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="J48:J54"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="J33:J39"/>
-    <mergeCell ref="J26:J32"/>
-    <mergeCell ref="J127:J136"/>
-    <mergeCell ref="J111:J117"/>
-    <mergeCell ref="J102:J110"/>
-    <mergeCell ref="J95:J101"/>
-    <mergeCell ref="J88:J94"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="A139:A141"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A127:A136"/>
+    <mergeCell ref="A129:A138"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -3193,10 +3184,33 @@
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="J129:J138"/>
+    <mergeCell ref="J113:J119"/>
+    <mergeCell ref="J104:J112"/>
+    <mergeCell ref="J97:J103"/>
+    <mergeCell ref="J90:J96"/>
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J120:J128"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J81:J89"/>
+    <mergeCell ref="J71:J80"/>
+    <mergeCell ref="J63:J70"/>
+    <mergeCell ref="J55:J62"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J33:J39"/>
+    <mergeCell ref="J26:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
